--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rc6bce0b7a0ba443a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7c7260f5f06343b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7c7260f5f06343b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R95fdb0c00e69406b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R95fdb0c00e69406b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rfe741eaf8bae40b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rfe741eaf8bae40b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Ra2f5a410ccf344ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Ra2f5a410ccf344ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd1be7c9f8a554e32"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd1be7c9f8a554e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R233bc7307323491e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R233bc7307323491e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R17fee2fee709429e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R17fee2fee709429e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7578f9de3247404f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7578f9de3247404f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R6704331f28914df9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R6704331f28914df9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Re0f4c3fe7c0e40bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Re0f4c3fe7c0e40bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R01302d8c654240b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R01302d8c654240b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R48bd64d84f68486c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/010_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R48bd64d84f68486c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7a51f7a07d6e4502"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
